--- a/产品功能列表.xlsx
+++ b/产品功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="第一版" sheetId="1" r:id="rId1"/>
@@ -237,25 +237,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -566,173 +566,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="7"/>
+      <c r="J4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="K4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="4"/>
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="6"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="J5" s="7" t="s">
+      <c r="H5" s="4"/>
+      <c r="J5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="M5" s="8" t="s">
+      <c r="K5" s="6"/>
+      <c r="M5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="J7" s="7" t="s">
+      <c r="H7" s="4"/>
+      <c r="J7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="M7" s="8" t="s">
+      <c r="K7" s="6"/>
+      <c r="M7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="6"/>
+      <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="J9" s="7" t="s">
+      <c r="H9" s="4"/>
+      <c r="J9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="G11" s="6" t="s">
+      <c r="B11" s="3"/>
+      <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="J11" s="8" t="s">
+      <c r="H11" s="4"/>
+      <c r="J11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="G13" s="6" t="s">
+      <c r="B13" s="3"/>
+      <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="J13" s="8" t="s">
+      <c r="H13" s="4"/>
+      <c r="J13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="G15" s="8" t="s">
+      <c r="B15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J9:K9"/>
+  <mergeCells count="21">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -744,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -759,81 +760,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="7"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="E2" s="1"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="7"/>
+      <c r="J4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="K4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="B5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="8"/>
+      <c r="J5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="M5" s="5" t="s">
+      <c r="K5" s="8"/>
+      <c r="M5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="M7" s="5" t="s">
+      <c r="B7" s="8"/>
+      <c r="M7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="N7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
